--- a/Cables and Labels/HV_cable_map.xlsx
+++ b/Cables and Labels/HV_cable_map.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaubt/Desktop/CDet/Cables and Labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5377955-35C9-DA4A-8531-BB5F08DDE1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844A7FC-4A54-2B40-94BB-09CA3627FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="17320" windowHeight="16680" xr2:uid="{6B3C9DF8-890F-FC4D-A307-851A74B70A47}"/>
+    <workbookView xWindow="1180" yWindow="740" windowWidth="26920" windowHeight="16680" activeTab="1" xr2:uid="{6B3C9DF8-890F-FC4D-A307-851A74B70A47}"/>
   </bookViews>
   <sheets>
     <sheet name="HV map Cdet" sheetId="6" r:id="rId1"/>
-    <sheet name="cable numbering" sheetId="1" r:id="rId2"/>
-    <sheet name="cdet hv rough map" sheetId="3" r:id="rId3"/>
-    <sheet name="Cdet HV map for gui " sheetId="5" r:id="rId4"/>
+    <sheet name="Cdet HV Gui Map" sheetId="7" r:id="rId2"/>
+    <sheet name="HV cable numbering" sheetId="1" r:id="rId3"/>
+    <sheet name="cdet hv rough map" sheetId="3" r:id="rId4"/>
+    <sheet name="cdet hv gui rough draft" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="721">
   <si>
     <t>Legend</t>
   </si>
@@ -1187,12 +1188,6 @@
     <t>Detector Left</t>
   </si>
   <si>
-    <t>Physical Paddle</t>
-  </si>
-  <si>
-    <t>Paddle Position</t>
-  </si>
-  <si>
     <t>0,13</t>
   </si>
   <si>
@@ -1695,6 +1690,519 @@
   </si>
   <si>
     <t>9,0</t>
+  </si>
+  <si>
+    <t>Physical Bar</t>
+  </si>
+  <si>
+    <t>Bar Position</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Layer 1 Left</t>
+  </si>
+  <si>
+    <t>Layer 1 Right</t>
+  </si>
+  <si>
+    <t>Layer 2 Left</t>
+  </si>
+  <si>
+    <t>Layer 2 Right</t>
+  </si>
+  <si>
+    <t>CDET_1L0</t>
+  </si>
+  <si>
+    <t>CDET_1L1</t>
+  </si>
+  <si>
+    <t>CDET_1L2</t>
+  </si>
+  <si>
+    <t>CDET_1L3</t>
+  </si>
+  <si>
+    <t>CDET_1L4</t>
+  </si>
+  <si>
+    <t>CDET_1L40</t>
+  </si>
+  <si>
+    <t>CDET_1L39</t>
+  </si>
+  <si>
+    <t>CDET_1L38</t>
+  </si>
+  <si>
+    <t>CDET_1L37</t>
+  </si>
+  <si>
+    <t>CDET_1L36</t>
+  </si>
+  <si>
+    <t>CDET_1L35</t>
+  </si>
+  <si>
+    <t>CDET_1L34</t>
+  </si>
+  <si>
+    <t>CDET_1L33</t>
+  </si>
+  <si>
+    <t>CDET_1L32</t>
+  </si>
+  <si>
+    <t>CDET_1L31</t>
+  </si>
+  <si>
+    <t>CDET_1L30</t>
+  </si>
+  <si>
+    <t>CDET_1L29</t>
+  </si>
+  <si>
+    <t>CDET_1L28</t>
+  </si>
+  <si>
+    <t>CDET_1L27</t>
+  </si>
+  <si>
+    <t>CDET_1L26</t>
+  </si>
+  <si>
+    <t>CDET_1L25</t>
+  </si>
+  <si>
+    <t>CDET_1L24</t>
+  </si>
+  <si>
+    <t>CDET_1L23</t>
+  </si>
+  <si>
+    <t>CDET_1L22</t>
+  </si>
+  <si>
+    <t>CDET_1L21</t>
+  </si>
+  <si>
+    <t>CDET_1L20</t>
+  </si>
+  <si>
+    <t>CDET_1L19</t>
+  </si>
+  <si>
+    <t>CDET_1L18</t>
+  </si>
+  <si>
+    <t>CDET_1L17</t>
+  </si>
+  <si>
+    <t>CDET_1L16</t>
+  </si>
+  <si>
+    <t>CDET_1L15</t>
+  </si>
+  <si>
+    <t>CDET_1L14</t>
+  </si>
+  <si>
+    <t>CDET_1L5</t>
+  </si>
+  <si>
+    <t>CDET_1L6</t>
+  </si>
+  <si>
+    <t>CDET_1L7</t>
+  </si>
+  <si>
+    <t>CDET_1L8</t>
+  </si>
+  <si>
+    <t>CDET_1L9</t>
+  </si>
+  <si>
+    <t>CDET_1L10</t>
+  </si>
+  <si>
+    <t>CDET_1L11</t>
+  </si>
+  <si>
+    <t>CDET_1L12</t>
+  </si>
+  <si>
+    <t>CDET_1L13</t>
+  </si>
+  <si>
+    <t>CDET_1R40</t>
+  </si>
+  <si>
+    <t>CDET_1R39</t>
+  </si>
+  <si>
+    <t>CDET_1R38</t>
+  </si>
+  <si>
+    <t>CDET_1R37</t>
+  </si>
+  <si>
+    <t>CDET_1R36</t>
+  </si>
+  <si>
+    <t>CDET_1R35</t>
+  </si>
+  <si>
+    <t>CDET_1R34</t>
+  </si>
+  <si>
+    <t>CDET_1R33</t>
+  </si>
+  <si>
+    <t>CDET_1R32</t>
+  </si>
+  <si>
+    <t>CDET_1R31</t>
+  </si>
+  <si>
+    <t>CDET_1R30</t>
+  </si>
+  <si>
+    <t>CDET_1R29</t>
+  </si>
+  <si>
+    <t>CDET_1R28</t>
+  </si>
+  <si>
+    <t>CDET_1R27</t>
+  </si>
+  <si>
+    <t>CDET_1R26</t>
+  </si>
+  <si>
+    <t>CDET_1R25</t>
+  </si>
+  <si>
+    <t>CDET_1R24</t>
+  </si>
+  <si>
+    <t>CDET_1R23</t>
+  </si>
+  <si>
+    <t>CDET_1R22</t>
+  </si>
+  <si>
+    <t>CDET_1R21</t>
+  </si>
+  <si>
+    <t>CDET_1R20</t>
+  </si>
+  <si>
+    <t>CDET_1R19</t>
+  </si>
+  <si>
+    <t>CDET_1R18</t>
+  </si>
+  <si>
+    <t>CDET_1R17</t>
+  </si>
+  <si>
+    <t>CDET_1R16</t>
+  </si>
+  <si>
+    <t>CDET_1R15</t>
+  </si>
+  <si>
+    <t>CDET_1R14</t>
+  </si>
+  <si>
+    <t>CDET_1R13</t>
+  </si>
+  <si>
+    <t>CDET_1R12</t>
+  </si>
+  <si>
+    <t>CDET_1R11</t>
+  </si>
+  <si>
+    <t>CDET_1R10</t>
+  </si>
+  <si>
+    <t>CDET_1R9</t>
+  </si>
+  <si>
+    <t>CDET_1R8</t>
+  </si>
+  <si>
+    <t>CDET_1R7</t>
+  </si>
+  <si>
+    <t>CDET_1R6</t>
+  </si>
+  <si>
+    <t>CDET_1R5</t>
+  </si>
+  <si>
+    <t>CDET_1R4</t>
+  </si>
+  <si>
+    <t>CDET_1R3</t>
+  </si>
+  <si>
+    <t>CDET_1R2</t>
+  </si>
+  <si>
+    <t>CDET_1R1</t>
+  </si>
+  <si>
+    <t>CDET_1R0</t>
+  </si>
+  <si>
+    <t>CDET_2R40</t>
+  </si>
+  <si>
+    <t>CDET_2R39</t>
+  </si>
+  <si>
+    <t>CDET_2R38</t>
+  </si>
+  <si>
+    <t>CDET_2R37</t>
+  </si>
+  <si>
+    <t>CDET_2R36</t>
+  </si>
+  <si>
+    <t>CDET_2R35</t>
+  </si>
+  <si>
+    <t>CDET_2R34</t>
+  </si>
+  <si>
+    <t>CDET_2R33</t>
+  </si>
+  <si>
+    <t>CDET_2R32</t>
+  </si>
+  <si>
+    <t>CDET_2R31</t>
+  </si>
+  <si>
+    <t>CDET_2R30</t>
+  </si>
+  <si>
+    <t>CDET_2R29</t>
+  </si>
+  <si>
+    <t>CDET_2R28</t>
+  </si>
+  <si>
+    <t>CDET_2R27</t>
+  </si>
+  <si>
+    <t>CDET_2R26</t>
+  </si>
+  <si>
+    <t>CDET_2R25</t>
+  </si>
+  <si>
+    <t>CDET_2R24</t>
+  </si>
+  <si>
+    <t>CDET_2R23</t>
+  </si>
+  <si>
+    <t>CDET_2R22</t>
+  </si>
+  <si>
+    <t>CDET_2R21</t>
+  </si>
+  <si>
+    <t>CDET_2R20</t>
+  </si>
+  <si>
+    <t>CDET_2R19</t>
+  </si>
+  <si>
+    <t>CDET_2R18</t>
+  </si>
+  <si>
+    <t>CDET_2R17</t>
+  </si>
+  <si>
+    <t>CDET_2R16</t>
+  </si>
+  <si>
+    <t>CDET_2R15</t>
+  </si>
+  <si>
+    <t>CDET_2R14</t>
+  </si>
+  <si>
+    <t>CDET_2R13</t>
+  </si>
+  <si>
+    <t>CDET_2R12</t>
+  </si>
+  <si>
+    <t>CDET_2R11</t>
+  </si>
+  <si>
+    <t>CDET_2R10</t>
+  </si>
+  <si>
+    <t>CDET_2R9</t>
+  </si>
+  <si>
+    <t>CDET_2R8</t>
+  </si>
+  <si>
+    <t>CDET_2R7</t>
+  </si>
+  <si>
+    <t>CDET_2R6</t>
+  </si>
+  <si>
+    <t>CDET_2R5</t>
+  </si>
+  <si>
+    <t>CDET_2R4</t>
+  </si>
+  <si>
+    <t>CDET_2R3</t>
+  </si>
+  <si>
+    <t>CDET_2R2</t>
+  </si>
+  <si>
+    <t>CDET_2R1</t>
+  </si>
+  <si>
+    <t>CDET_2R0</t>
+  </si>
+  <si>
+    <t>CDET_2L40</t>
+  </si>
+  <si>
+    <t>CDET_2L39</t>
+  </si>
+  <si>
+    <t>CDET_2L38</t>
+  </si>
+  <si>
+    <t>CDET_2L37</t>
+  </si>
+  <si>
+    <t>CDET_2L36</t>
+  </si>
+  <si>
+    <t>CDET_2L35</t>
+  </si>
+  <si>
+    <t>CDET_2L34</t>
+  </si>
+  <si>
+    <t>CDET_2L33</t>
+  </si>
+  <si>
+    <t>CDET_2L32</t>
+  </si>
+  <si>
+    <t>CDET_2L31</t>
+  </si>
+  <si>
+    <t>CDET_2L30</t>
+  </si>
+  <si>
+    <t>CDET_2L29</t>
+  </si>
+  <si>
+    <t>CDET_2L28</t>
+  </si>
+  <si>
+    <t>CDET_2L27</t>
+  </si>
+  <si>
+    <t>CDET_2L26</t>
+  </si>
+  <si>
+    <t>CDET_2L25</t>
+  </si>
+  <si>
+    <t>CDET_2L24</t>
+  </si>
+  <si>
+    <t>CDET_2L23</t>
+  </si>
+  <si>
+    <t>CDET_2L22</t>
+  </si>
+  <si>
+    <t>CDET_2L21</t>
+  </si>
+  <si>
+    <t>CDET_2L20</t>
+  </si>
+  <si>
+    <t>CDET_2L19</t>
+  </si>
+  <si>
+    <t>CDET_2L18</t>
+  </si>
+  <si>
+    <t>CDET_2L17</t>
+  </si>
+  <si>
+    <t>CDET_2L16</t>
+  </si>
+  <si>
+    <t>CDET_2L15</t>
+  </si>
+  <si>
+    <t>CDET_2L14</t>
+  </si>
+  <si>
+    <t>CDET_2L13</t>
+  </si>
+  <si>
+    <t>CDET_2L12</t>
+  </si>
+  <si>
+    <t>CDET_2L11</t>
+  </si>
+  <si>
+    <t>CDET_2L10</t>
+  </si>
+  <si>
+    <t>CDET_2L9</t>
+  </si>
+  <si>
+    <t>CDET_2L8</t>
+  </si>
+  <si>
+    <t>CDET_2L7</t>
+  </si>
+  <si>
+    <t>CDET_2L6</t>
+  </si>
+  <si>
+    <t>CDET_2L5</t>
+  </si>
+  <si>
+    <t>CDET_2L4</t>
+  </si>
+  <si>
+    <t>CDET_2L3</t>
+  </si>
+  <si>
+    <t>CDET_2L2</t>
+  </si>
+  <si>
+    <t>CDET_2L1</t>
+  </si>
+  <si>
+    <t>CDET_2L0</t>
   </si>
 </sst>
 </file>
@@ -1775,7 +2283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1805,6 +2313,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1861,7 +2382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1878,13 +2399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1893,10 +2414,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,16 +2431,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2257,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2757BCB9-813D-434C-A8D3-35A7CB15A560}">
   <dimension ref="A2:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2298,7 +2836,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="9" t="s">
         <v>372</v>
       </c>
@@ -2325,7 +2863,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="15"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="9" t="s">
         <v>370</v>
       </c>
@@ -2339,2175 +2877,2175 @@
       <c r="S3" s="9"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="17" t="s">
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="16" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="11"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="12"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15">
+        <v>14</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="15">
+        <v>14</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="15">
+        <v>13</v>
+      </c>
+      <c r="M7" s="15">
+        <v>2</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>2</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15">
+        <v>12</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15">
+        <v>3</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="15">
+        <v>12</v>
+      </c>
+      <c r="M8" s="15">
+        <v>3</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>3</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15">
+        <v>11</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="15">
+        <v>11</v>
+      </c>
+      <c r="M9" s="15">
+        <v>4</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>4</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15">
+        <v>5</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15">
+        <v>10</v>
+      </c>
+      <c r="G10" s="15">
+        <v>5</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="15">
+        <v>10</v>
+      </c>
+      <c r="M10" s="15">
+        <v>5</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>5</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15">
+        <v>9</v>
+      </c>
+      <c r="G11" s="15">
+        <v>6</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="15">
+        <v>9</v>
+      </c>
+      <c r="M11" s="15">
+        <v>6</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="15">
+        <v>6</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="15">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15">
+        <v>7</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15">
+        <v>8</v>
+      </c>
+      <c r="G12" s="15">
+        <v>7</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="15">
+        <v>8</v>
+      </c>
+      <c r="M12" s="15">
+        <v>7</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>7</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="15">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15">
+        <v>7</v>
+      </c>
+      <c r="G13" s="15">
+        <v>8</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="15">
+        <v>7</v>
+      </c>
+      <c r="M13" s="15">
+        <v>8</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>8</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15">
+        <v>6</v>
+      </c>
+      <c r="C14" s="15">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15">
+        <v>6</v>
+      </c>
+      <c r="G14" s="15">
+        <v>9</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="15">
+        <v>6</v>
+      </c>
+      <c r="M14" s="15">
+        <v>9</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>9</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="15">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15">
+        <v>5</v>
+      </c>
+      <c r="G15" s="15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="15">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15">
+        <v>10</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>10</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15">
+        <v>4</v>
+      </c>
+      <c r="G16" s="15">
+        <v>11</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="15">
+        <v>4</v>
+      </c>
+      <c r="M16" s="15">
+        <v>11</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>11</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="15">
+        <v>3</v>
+      </c>
+      <c r="C17" s="15">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15">
+        <v>3</v>
+      </c>
+      <c r="G17" s="15">
+        <v>12</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="15">
+        <v>3</v>
+      </c>
+      <c r="M17" s="15">
+        <v>12</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>12</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="S17" s="12"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="15">
+        <v>2</v>
+      </c>
+      <c r="C18" s="15">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15">
+        <v>2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>13</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="15">
+        <v>2</v>
+      </c>
+      <c r="M18" s="15">
+        <v>13</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>13</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>14</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>14</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="15">
+        <v>14</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>14</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="12"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I22" s="12"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="S22" s="12"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="15">
+        <v>14</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15">
+        <v>14</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="15">
+        <v>14</v>
+      </c>
+      <c r="M23" s="15">
+        <v>1</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="15">
+        <v>1</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="15">
+        <v>13</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15">
+        <v>13</v>
+      </c>
+      <c r="G24" s="15">
+        <v>2</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="15">
+        <v>13</v>
+      </c>
+      <c r="M24" s="15">
+        <v>2</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>2</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="15">
+        <v>12</v>
+      </c>
+      <c r="C25" s="15">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15">
+        <v>12</v>
+      </c>
+      <c r="G25" s="15">
+        <v>3</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="15">
+        <v>12</v>
+      </c>
+      <c r="M25" s="15">
+        <v>3</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="15">
+        <v>3</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="15">
+        <v>11</v>
+      </c>
+      <c r="C26" s="15">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15">
+        <v>11</v>
+      </c>
+      <c r="G26" s="15">
+        <v>4</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="15">
+        <v>11</v>
+      </c>
+      <c r="M26" s="15">
+        <v>4</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>4</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="15">
+        <v>10</v>
+      </c>
+      <c r="C27" s="15">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15">
+        <v>10</v>
+      </c>
+      <c r="G27" s="15">
+        <v>5</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="15">
+        <v>10</v>
+      </c>
+      <c r="M27" s="15">
+        <v>5</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="15">
+        <v>5</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="S27" s="12"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="15">
+        <v>9</v>
+      </c>
+      <c r="C28" s="15">
+        <v>6</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15">
+        <v>9</v>
+      </c>
+      <c r="G28" s="15">
+        <v>6</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="15">
+        <v>9</v>
+      </c>
+      <c r="M28" s="15">
+        <v>6</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>6</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="15">
+        <v>8</v>
+      </c>
+      <c r="C29" s="15">
+        <v>7</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15">
+        <v>8</v>
+      </c>
+      <c r="G29" s="15">
+        <v>7</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="15">
+        <v>8</v>
+      </c>
+      <c r="M29" s="15">
+        <v>7</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="15">
+        <v>7</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="S29" s="12"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="15">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15">
+        <v>7</v>
+      </c>
+      <c r="G30" s="15">
+        <v>8</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="I30" s="12"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="15">
+        <v>7</v>
+      </c>
+      <c r="M30" s="15">
+        <v>8</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>8</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="S30" s="12"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="15">
+        <v>6</v>
+      </c>
+      <c r="C31" s="15">
+        <v>9</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15">
+        <v>6</v>
+      </c>
+      <c r="G31" s="15">
+        <v>9</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="15">
+        <v>6</v>
+      </c>
+      <c r="M31" s="15">
+        <v>9</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>9</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="15">
+        <v>5</v>
+      </c>
+      <c r="C32" s="15">
+        <v>10</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15">
+        <v>5</v>
+      </c>
+      <c r="G32" s="15">
+        <v>10</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="15">
+        <v>5</v>
+      </c>
+      <c r="M32" s="15">
+        <v>10</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>10</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="15">
+        <v>4</v>
+      </c>
+      <c r="C33" s="15">
+        <v>11</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15">
+        <v>4</v>
+      </c>
+      <c r="G33" s="15">
+        <v>11</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="15">
+        <v>4</v>
+      </c>
+      <c r="M33" s="15">
+        <v>11</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>11</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="15">
+        <v>3</v>
+      </c>
+      <c r="C34" s="15">
+        <v>12</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15">
+        <v>3</v>
+      </c>
+      <c r="G34" s="15">
+        <v>12</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="15">
+        <v>3</v>
+      </c>
+      <c r="M34" s="15">
+        <v>12</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>12</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="15">
+        <v>2</v>
+      </c>
+      <c r="C35" s="15">
+        <v>13</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15">
+        <v>2</v>
+      </c>
+      <c r="G35" s="15">
+        <v>13</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="15">
+        <v>2</v>
+      </c>
+      <c r="M35" s="15">
+        <v>13</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>13</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="S35" s="12"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15">
+        <v>14</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15">
+        <v>14</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="15">
+        <v>1</v>
+      </c>
+      <c r="M36" s="15">
+        <v>14</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="O36" s="14"/>
+      <c r="P36" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>14</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="S36" s="12"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="12"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O39" s="14"/>
+      <c r="P39" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="S39" s="12"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="15">
+        <v>14</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="15">
+        <v>14</v>
+      </c>
+      <c r="G40" s="15">
+        <v>1</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="15">
+        <v>14</v>
+      </c>
+      <c r="M40" s="15">
+        <v>1</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q40" s="15">
+        <v>1</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="15">
+        <v>13</v>
+      </c>
+      <c r="C41" s="15">
+        <v>2</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S5" s="11"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14">
+      <c r="E41" s="14"/>
+      <c r="F41" s="15">
+        <v>13</v>
+      </c>
+      <c r="G41" s="15">
+        <v>2</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="15">
+        <v>13</v>
+      </c>
+      <c r="M41" s="15">
+        <v>2</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>2</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="S41" s="12"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="15">
+        <v>12</v>
+      </c>
+      <c r="C42" s="15">
+        <v>3</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15">
+        <v>12</v>
+      </c>
+      <c r="G42" s="15">
+        <v>3</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="15">
+        <v>12</v>
+      </c>
+      <c r="M42" s="15">
+        <v>3</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="O42" s="14"/>
+      <c r="P42" s="15">
+        <v>12</v>
+      </c>
+      <c r="Q42" s="15">
+        <v>3</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="S42" s="12"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="15">
+        <v>11</v>
+      </c>
+      <c r="C43" s="15">
+        <v>4</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15">
+        <v>11</v>
+      </c>
+      <c r="G43" s="15">
+        <v>4</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="15">
+        <v>11</v>
+      </c>
+      <c r="M43" s="15">
+        <v>4</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="O43" s="14"/>
+      <c r="P43" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="15">
+        <v>4</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="S43" s="12"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="15">
+        <v>10</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15">
+        <v>10</v>
+      </c>
+      <c r="G44" s="15">
+        <v>5</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="15">
+        <v>10</v>
+      </c>
+      <c r="M44" s="15">
+        <v>5</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="O44" s="14"/>
+      <c r="P44" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>5</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="S44" s="12"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="15">
+        <v>9</v>
+      </c>
+      <c r="C45" s="15">
+        <v>6</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15">
+        <v>9</v>
+      </c>
+      <c r="G45" s="15">
+        <v>6</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="15">
+        <v>9</v>
+      </c>
+      <c r="M45" s="15">
+        <v>6</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="O45" s="14"/>
+      <c r="P45" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q45" s="15">
+        <v>6</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="S45" s="12"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="15">
+        <v>8</v>
+      </c>
+      <c r="C46" s="15">
+        <v>7</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15">
+        <v>8</v>
+      </c>
+      <c r="G46" s="15">
+        <v>7</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="I46" s="12"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="15">
+        <v>8</v>
+      </c>
+      <c r="M46" s="15">
+        <v>7</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="O46" s="14"/>
+      <c r="P46" s="15">
+        <v>8</v>
+      </c>
+      <c r="Q46" s="15">
+        <v>7</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="S46" s="12"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="15">
+        <v>7</v>
+      </c>
+      <c r="C47" s="15">
+        <v>8</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15">
+        <v>7</v>
+      </c>
+      <c r="G47" s="15">
+        <v>8</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="15">
+        <v>7</v>
+      </c>
+      <c r="M47" s="15">
+        <v>8</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="O47" s="14"/>
+      <c r="P47" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q47" s="15">
+        <v>8</v>
+      </c>
+      <c r="R47" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="S47" s="12"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="15">
+        <v>6</v>
+      </c>
+      <c r="C48" s="15">
+        <v>9</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15">
+        <v>6</v>
+      </c>
+      <c r="G48" s="15">
+        <v>9</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="15">
+        <v>6</v>
+      </c>
+      <c r="M48" s="15">
+        <v>9</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="O48" s="14"/>
+      <c r="P48" s="15">
+        <v>6</v>
+      </c>
+      <c r="Q48" s="15">
+        <v>9</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="S48" s="12"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="15">
+        <v>5</v>
+      </c>
+      <c r="C49" s="15">
+        <v>10</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15">
+        <v>5</v>
+      </c>
+      <c r="G49" s="15">
+        <v>10</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="I49" s="12"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="15">
+        <v>5</v>
+      </c>
+      <c r="M49" s="15">
+        <v>10</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="O49" s="14"/>
+      <c r="P49" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="15">
+        <v>10</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="S49" s="12"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="15">
+        <v>4</v>
+      </c>
+      <c r="C50" s="15">
+        <v>11</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15">
+        <v>4</v>
+      </c>
+      <c r="G50" s="15">
+        <v>11</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="I50" s="12"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="15">
+        <v>4</v>
+      </c>
+      <c r="M50" s="15">
+        <v>11</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="O50" s="14"/>
+      <c r="P50" s="15">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="15">
+        <v>11</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="S50" s="12"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="15">
+        <v>3</v>
+      </c>
+      <c r="C51" s="15">
+        <v>12</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15">
+        <v>3</v>
+      </c>
+      <c r="G51" s="15">
+        <v>12</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="I51" s="12"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="15">
+        <v>3</v>
+      </c>
+      <c r="M51" s="15">
+        <v>12</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="O51" s="14"/>
+      <c r="P51" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>12</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="S51" s="12"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="15">
+        <v>2</v>
+      </c>
+      <c r="C52" s="15">
+        <v>13</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15">
+        <v>2</v>
+      </c>
+      <c r="G52" s="15">
+        <v>13</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="I52" s="12"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="15">
+        <v>2</v>
+      </c>
+      <c r="M52" s="15">
+        <v>13</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="O52" s="14"/>
+      <c r="P52" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="15">
+        <v>13</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="S52" s="12"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="15">
+        <v>1</v>
+      </c>
+      <c r="C53" s="15">
         <v>14</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D53" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15">
         <v>1</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14">
+      <c r="G53" s="15">
         <v>14</v>
       </c>
-      <c r="G6" s="14">
+      <c r="H53" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="15">
         <v>1</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="14">
+      <c r="M53" s="15">
         <v>14</v>
       </c>
-      <c r="M6" s="14">
+      <c r="N53" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="O53" s="14"/>
+      <c r="P53" s="15">
         <v>1</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>496</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14">
+      <c r="Q53" s="15">
         <v>14</v>
       </c>
-      <c r="Q6" s="14">
-        <v>1</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="S6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14">
-        <v>13</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14">
-        <v>13</v>
-      </c>
-      <c r="G7" s="14">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="14">
-        <v>13</v>
-      </c>
-      <c r="M7" s="14">
-        <v>2</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>2</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="S7" s="11"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="14">
-        <v>12</v>
-      </c>
-      <c r="M8" s="14">
-        <v>3</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>498</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>3</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14">
-        <v>11</v>
-      </c>
-      <c r="C9" s="14">
-        <v>4</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14">
-        <v>11</v>
-      </c>
-      <c r="G9" s="14">
-        <v>4</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="14">
-        <v>11</v>
-      </c>
-      <c r="M9" s="14">
-        <v>4</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>4</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="S9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14">
-        <v>10</v>
-      </c>
-      <c r="C10" s="14">
-        <v>5</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="14">
-        <v>10</v>
-      </c>
-      <c r="M10" s="14">
-        <v>5</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>500</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>5</v>
-      </c>
-      <c r="R10" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="14">
-        <v>9</v>
-      </c>
-      <c r="G11" s="14">
-        <v>6</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="14">
-        <v>9</v>
-      </c>
-      <c r="M11" s="14">
-        <v>6</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>501</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="14">
-        <v>6</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14">
-        <v>8</v>
-      </c>
-      <c r="C12" s="14">
-        <v>7</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14">
-        <v>8</v>
-      </c>
-      <c r="G12" s="14">
-        <v>7</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="14">
-        <v>8</v>
-      </c>
-      <c r="M12" s="14">
-        <v>7</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>502</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14">
-        <v>8</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>7</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14">
-        <v>7</v>
-      </c>
-      <c r="C13" s="14">
-        <v>8</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="14">
-        <v>7</v>
-      </c>
-      <c r="G13" s="14">
-        <v>8</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="14">
-        <v>7</v>
-      </c>
-      <c r="M13" s="14">
-        <v>8</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14">
-        <v>7</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>8</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="14">
-        <v>9</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14">
-        <v>6</v>
-      </c>
-      <c r="G14" s="14">
-        <v>9</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="14">
-        <v>6</v>
-      </c>
-      <c r="M14" s="14">
-        <v>9</v>
-      </c>
-      <c r="N14" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14">
-        <v>6</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>9</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="S14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14">
-        <v>5</v>
-      </c>
-      <c r="C15" s="14">
-        <v>10</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14">
-        <v>5</v>
-      </c>
-      <c r="G15" s="14">
-        <v>10</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="14">
-        <v>5</v>
-      </c>
-      <c r="M15" s="14">
-        <v>10</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>505</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="14">
-        <v>10</v>
-      </c>
-      <c r="R15" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14">
-        <v>4</v>
-      </c>
-      <c r="C16" s="14">
-        <v>11</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14">
-        <v>4</v>
-      </c>
-      <c r="G16" s="14">
-        <v>11</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="14">
-        <v>4</v>
-      </c>
-      <c r="M16" s="14">
-        <v>11</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>11</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14">
-        <v>3</v>
-      </c>
-      <c r="C17" s="14">
-        <v>12</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14">
-        <v>3</v>
-      </c>
-      <c r="G17" s="14">
-        <v>12</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="14">
-        <v>3</v>
-      </c>
-      <c r="M17" s="14">
-        <v>12</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="14">
-        <v>12</v>
-      </c>
-      <c r="R17" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14">
-        <v>2</v>
-      </c>
-      <c r="C18" s="14">
-        <v>13</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14">
-        <v>2</v>
-      </c>
-      <c r="G18" s="14">
-        <v>13</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="14">
-        <v>2</v>
-      </c>
-      <c r="M18" s="14">
-        <v>13</v>
-      </c>
-      <c r="N18" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>13</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>522</v>
-      </c>
-      <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14">
-        <v>14</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14">
-        <v>14</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="14">
-        <v>1</v>
-      </c>
-      <c r="M19" s="14">
-        <v>14</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>14</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="S19" s="11"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S22" s="11"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14">
-        <v>14</v>
-      </c>
-      <c r="C23" s="14">
-        <v>1</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14">
-        <v>14</v>
-      </c>
-      <c r="G23" s="14">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="14">
-        <v>14</v>
-      </c>
-      <c r="M23" s="14">
-        <v>1</v>
-      </c>
-      <c r="N23" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="14">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>1</v>
-      </c>
-      <c r="R23" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="S23" s="11"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14">
-        <v>13</v>
-      </c>
-      <c r="C24" s="14">
-        <v>2</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14">
-        <v>13</v>
-      </c>
-      <c r="G24" s="14">
-        <v>2</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="14">
-        <v>13</v>
-      </c>
-      <c r="M24" s="14">
-        <v>2</v>
-      </c>
-      <c r="N24" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="14">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>2</v>
-      </c>
-      <c r="R24" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="S24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14">
-        <v>12</v>
-      </c>
-      <c r="C25" s="14">
-        <v>3</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14">
-        <v>12</v>
-      </c>
-      <c r="G25" s="14">
-        <v>3</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="14">
-        <v>12</v>
-      </c>
-      <c r="M25" s="14">
-        <v>3</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="14">
-        <v>3</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="S25" s="11"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="14">
-        <v>11</v>
-      </c>
-      <c r="C26" s="14">
-        <v>4</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14">
-        <v>11</v>
-      </c>
-      <c r="G26" s="14">
-        <v>4</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="14">
-        <v>11</v>
-      </c>
-      <c r="M26" s="14">
-        <v>4</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>4</v>
-      </c>
-      <c r="R26" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="S26" s="11"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14">
-        <v>10</v>
-      </c>
-      <c r="C27" s="14">
-        <v>5</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14">
-        <v>10</v>
-      </c>
-      <c r="G27" s="14">
-        <v>5</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="14">
-        <v>10</v>
-      </c>
-      <c r="M27" s="14">
-        <v>5</v>
-      </c>
-      <c r="N27" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>5</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>528</v>
-      </c>
-      <c r="S27" s="11"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14">
-        <v>9</v>
-      </c>
-      <c r="C28" s="14">
-        <v>6</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="14">
-        <v>9</v>
-      </c>
-      <c r="G28" s="14">
-        <v>6</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="14">
-        <v>9</v>
-      </c>
-      <c r="M28" s="14">
-        <v>6</v>
-      </c>
-      <c r="N28" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="O28" s="13"/>
-      <c r="P28" s="14">
-        <v>9</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>6</v>
-      </c>
-      <c r="R28" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14">
-        <v>8</v>
-      </c>
-      <c r="C29" s="14">
-        <v>7</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14">
-        <v>8</v>
-      </c>
-      <c r="G29" s="14">
-        <v>7</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="14">
-        <v>8</v>
-      </c>
-      <c r="M29" s="14">
-        <v>7</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="14">
-        <v>7</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="S29" s="11"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14">
-        <v>7</v>
-      </c>
-      <c r="C30" s="14">
-        <v>8</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14">
-        <v>7</v>
-      </c>
-      <c r="G30" s="14">
-        <v>8</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="14">
-        <v>7</v>
-      </c>
-      <c r="M30" s="14">
-        <v>8</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14">
-        <v>7</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>8</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="14">
-        <v>6</v>
-      </c>
-      <c r="C31" s="14">
-        <v>9</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14">
-        <v>6</v>
-      </c>
-      <c r="G31" s="14">
-        <v>9</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="14">
-        <v>6</v>
-      </c>
-      <c r="M31" s="14">
-        <v>9</v>
-      </c>
-      <c r="N31" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>9</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="S31" s="11"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="14">
-        <v>5</v>
-      </c>
-      <c r="C32" s="14">
-        <v>10</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14">
-        <v>5</v>
-      </c>
-      <c r="G32" s="14">
-        <v>10</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="14">
-        <v>5</v>
-      </c>
-      <c r="M32" s="14">
-        <v>10</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="14">
-        <v>10</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="S32" s="11"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="14">
-        <v>4</v>
-      </c>
-      <c r="C33" s="14">
-        <v>11</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14">
-        <v>4</v>
-      </c>
-      <c r="G33" s="14">
-        <v>11</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="14">
-        <v>4</v>
-      </c>
-      <c r="M33" s="14">
-        <v>11</v>
-      </c>
-      <c r="N33" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="14">
-        <v>11</v>
-      </c>
-      <c r="R33" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="S33" s="11"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="14">
-        <v>3</v>
-      </c>
-      <c r="C34" s="14">
-        <v>12</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14">
-        <v>3</v>
-      </c>
-      <c r="G34" s="14">
-        <v>12</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="14">
-        <v>3</v>
-      </c>
-      <c r="M34" s="14">
-        <v>12</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>493</v>
-      </c>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="14">
-        <v>12</v>
-      </c>
-      <c r="R34" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="S34" s="11"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="14">
-        <v>2</v>
-      </c>
-      <c r="C35" s="14">
-        <v>13</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14">
-        <v>2</v>
-      </c>
-      <c r="G35" s="14">
-        <v>13</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="14">
-        <v>2</v>
-      </c>
-      <c r="M35" s="14">
-        <v>13</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="14">
-        <v>13</v>
-      </c>
-      <c r="R35" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="S35" s="11"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14">
-        <v>1</v>
-      </c>
-      <c r="C36" s="14">
-        <v>14</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="14">
-        <v>1</v>
-      </c>
-      <c r="G36" s="14">
-        <v>14</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="14">
-        <v>1</v>
-      </c>
-      <c r="M36" s="14">
-        <v>14</v>
-      </c>
-      <c r="N36" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="14">
-        <v>14</v>
-      </c>
-      <c r="R36" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="S36" s="11"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="11"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="M39" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="O39" s="13"/>
-      <c r="P39" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q39" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="R39" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="S39" s="11"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="14">
-        <v>14</v>
-      </c>
-      <c r="C40" s="14">
-        <v>1</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="14">
-        <v>14</v>
-      </c>
-      <c r="G40" s="14">
-        <v>1</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="14">
-        <v>14</v>
-      </c>
-      <c r="M40" s="14">
-        <v>1</v>
-      </c>
-      <c r="N40" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="O40" s="13"/>
-      <c r="P40" s="14">
-        <v>14</v>
-      </c>
-      <c r="Q40" s="14">
-        <v>1</v>
-      </c>
-      <c r="R40" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="S40" s="11"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="14">
-        <v>13</v>
-      </c>
-      <c r="C41" s="14">
-        <v>2</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14">
-        <v>13</v>
-      </c>
-      <c r="G41" s="14">
-        <v>2</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="14">
-        <v>13</v>
-      </c>
-      <c r="M41" s="14">
-        <v>2</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" s="14">
-        <v>13</v>
-      </c>
-      <c r="Q41" s="14">
-        <v>2</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="S41" s="11"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="14">
-        <v>12</v>
-      </c>
-      <c r="C42" s="14">
-        <v>3</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="14">
-        <v>12</v>
-      </c>
-      <c r="G42" s="14">
-        <v>3</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="14">
-        <v>12</v>
-      </c>
-      <c r="M42" s="14">
-        <v>3</v>
-      </c>
-      <c r="N42" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="O42" s="13"/>
-      <c r="P42" s="14">
-        <v>12</v>
-      </c>
-      <c r="Q42" s="14">
-        <v>3</v>
-      </c>
-      <c r="R42" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="S42" s="11"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="14">
-        <v>11</v>
-      </c>
-      <c r="C43" s="14">
-        <v>4</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="14">
-        <v>11</v>
-      </c>
-      <c r="G43" s="14">
-        <v>4</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="I43" s="11"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="14">
-        <v>11</v>
-      </c>
-      <c r="M43" s="14">
-        <v>4</v>
-      </c>
-      <c r="N43" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="O43" s="13"/>
-      <c r="P43" s="14">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>4</v>
-      </c>
-      <c r="R43" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="S43" s="11"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="14">
-        <v>10</v>
-      </c>
-      <c r="C44" s="14">
-        <v>5</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14">
-        <v>10</v>
-      </c>
-      <c r="G44" s="14">
-        <v>5</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="14">
-        <v>10</v>
-      </c>
-      <c r="M44" s="14">
-        <v>5</v>
-      </c>
-      <c r="N44" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="O44" s="13"/>
-      <c r="P44" s="14">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>5</v>
-      </c>
-      <c r="R44" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="S44" s="11"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="14">
-        <v>9</v>
-      </c>
-      <c r="C45" s="14">
-        <v>6</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14">
-        <v>9</v>
-      </c>
-      <c r="G45" s="14">
-        <v>6</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="I45" s="11"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="14">
-        <v>9</v>
-      </c>
-      <c r="M45" s="14">
-        <v>6</v>
-      </c>
-      <c r="N45" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="O45" s="13"/>
-      <c r="P45" s="14">
-        <v>9</v>
-      </c>
-      <c r="Q45" s="14">
-        <v>6</v>
-      </c>
-      <c r="R45" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="S45" s="11"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="14">
-        <v>8</v>
-      </c>
-      <c r="C46" s="14">
-        <v>7</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14">
-        <v>8</v>
-      </c>
-      <c r="G46" s="14">
-        <v>7</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="14">
-        <v>8</v>
-      </c>
-      <c r="M46" s="14">
-        <v>7</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="O46" s="13"/>
-      <c r="P46" s="14">
-        <v>8</v>
-      </c>
-      <c r="Q46" s="14">
-        <v>7</v>
-      </c>
-      <c r="R46" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="S46" s="11"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="14">
-        <v>7</v>
-      </c>
-      <c r="C47" s="14">
-        <v>8</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14">
-        <v>7</v>
-      </c>
-      <c r="G47" s="14">
-        <v>8</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="14">
-        <v>7</v>
-      </c>
-      <c r="M47" s="14">
-        <v>8</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="O47" s="13"/>
-      <c r="P47" s="14">
-        <v>7</v>
-      </c>
-      <c r="Q47" s="14">
-        <v>8</v>
-      </c>
-      <c r="R47" s="14" t="s">
-        <v>545</v>
-      </c>
-      <c r="S47" s="11"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="14">
-        <v>6</v>
-      </c>
-      <c r="C48" s="14">
-        <v>9</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14">
-        <v>6</v>
-      </c>
-      <c r="G48" s="14">
-        <v>9</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="I48" s="11"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="14">
-        <v>6</v>
-      </c>
-      <c r="M48" s="14">
-        <v>9</v>
-      </c>
-      <c r="N48" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="O48" s="13"/>
-      <c r="P48" s="14">
-        <v>6</v>
-      </c>
-      <c r="Q48" s="14">
-        <v>9</v>
-      </c>
-      <c r="R48" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="S48" s="11"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="14">
-        <v>5</v>
-      </c>
-      <c r="C49" s="14">
-        <v>10</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="14">
-        <v>5</v>
-      </c>
-      <c r="G49" s="14">
-        <v>10</v>
-      </c>
-      <c r="H49" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="I49" s="11"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="14">
-        <v>5</v>
-      </c>
-      <c r="M49" s="14">
-        <v>10</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>478</v>
-      </c>
-      <c r="O49" s="13"/>
-      <c r="P49" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>10</v>
-      </c>
-      <c r="R49" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="S49" s="11"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="14">
-        <v>4</v>
-      </c>
-      <c r="C50" s="14">
-        <v>11</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14">
-        <v>4</v>
-      </c>
-      <c r="G50" s="14">
-        <v>11</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="I50" s="11"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="14">
-        <v>4</v>
-      </c>
-      <c r="M50" s="14">
-        <v>11</v>
-      </c>
-      <c r="N50" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="O50" s="13"/>
-      <c r="P50" s="14">
-        <v>4</v>
-      </c>
-      <c r="Q50" s="14">
-        <v>11</v>
-      </c>
-      <c r="R50" s="14" t="s">
-        <v>548</v>
-      </c>
-      <c r="S50" s="11"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="14">
-        <v>3</v>
-      </c>
-      <c r="C51" s="14">
-        <v>12</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="14">
-        <v>3</v>
-      </c>
-      <c r="G51" s="14">
-        <v>12</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="I51" s="11"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="14">
-        <v>3</v>
-      </c>
-      <c r="M51" s="14">
-        <v>12</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="O51" s="13"/>
-      <c r="P51" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q51" s="14">
-        <v>12</v>
-      </c>
-      <c r="R51" s="14" t="s">
+      <c r="R53" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="S51" s="11"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="14">
-        <v>2</v>
-      </c>
-      <c r="C52" s="14">
-        <v>13</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="14">
-        <v>2</v>
-      </c>
-      <c r="G52" s="14">
-        <v>13</v>
-      </c>
-      <c r="H52" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="I52" s="11"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="14">
-        <v>2</v>
-      </c>
-      <c r="M52" s="14">
-        <v>13</v>
-      </c>
-      <c r="N52" s="14" t="s">
-        <v>481</v>
-      </c>
-      <c r="O52" s="13"/>
-      <c r="P52" s="14">
-        <v>2</v>
-      </c>
-      <c r="Q52" s="14">
-        <v>13</v>
-      </c>
-      <c r="R52" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="S52" s="11"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="14">
-        <v>1</v>
-      </c>
-      <c r="C53" s="14">
-        <v>14</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14">
-        <v>1</v>
-      </c>
-      <c r="G53" s="14">
-        <v>14</v>
-      </c>
-      <c r="H53" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="14">
-        <v>1</v>
-      </c>
-      <c r="M53" s="14">
-        <v>14</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="14">
-        <v>14</v>
-      </c>
-      <c r="R53" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="S53" s="11"/>
+      <c r="S53" s="12"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4527,11 +5065,1656 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FA9DD7-54BB-614B-9970-B8203AD4C8E7}">
+  <dimension ref="A2:P54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="22" t="s">
+        <v>554</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="O5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
+      <c r="B6" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="O6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="O7" s="23"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="O8" s="23"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="O9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="O10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
+      <c r="B11" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="O11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="O12" s="23"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="23"/>
+      <c r="B13" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+      <c r="B14" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="O14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="23"/>
+      <c r="B15" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="L15" s="23"/>
+      <c r="M15" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="O15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+      <c r="B16" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="O16" s="23"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="O17" s="23"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="O18" s="23"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="L19" s="23"/>
+      <c r="M19" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="O19" s="23"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="23"/>
+      <c r="B22" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="O22" s="23"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="23"/>
+      <c r="B23" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="L23" s="23"/>
+      <c r="M23" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="O23" s="23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="23"/>
+      <c r="B24" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="O24" s="23"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="23"/>
+      <c r="B25" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="O25" s="23"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="23"/>
+      <c r="B26" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="O26" s="23"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="23"/>
+      <c r="B27" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="23"/>
+      <c r="B28" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="23"/>
+      <c r="B29" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="L29" s="23"/>
+      <c r="M29" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="L30" s="23"/>
+      <c r="M30" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="23"/>
+      <c r="B31" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="L31" s="23"/>
+      <c r="M31" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="L34" s="23"/>
+      <c r="M34" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="L35" s="23"/>
+      <c r="M35" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="L36" s="23"/>
+      <c r="M36" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="O38" s="17"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="L39" s="23"/>
+      <c r="M39" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="O39" s="23"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="O40" s="23"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="23"/>
+      <c r="B41" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="O41" s="23"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="23"/>
+      <c r="B42" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="O42" s="23"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="23"/>
+      <c r="B43" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="O43" s="23"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="23"/>
+      <c r="B44" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="O44" s="23"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="23"/>
+      <c r="B45" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="L45" s="23"/>
+      <c r="M45" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="O45" s="23"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="23"/>
+      <c r="B46" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" s="23"/>
+      <c r="B47" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="O47" s="23"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="23"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="26"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="26"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="26"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="26"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="26"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A9EB89-CE7D-8649-8275-D8F0353A6204}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B6" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5209,6 +7392,174 @@
         <v>156</v>
       </c>
     </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18" s="27"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19" s="27"/>
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="27"/>
+      <c r="F20" s="27"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21" s="27"/>
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22" s="27"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="27"/>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="27"/>
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25" s="27"/>
+      <c r="F25" s="27"/>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="27"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="27"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="27"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="27"/>
+      <c r="F30" s="27"/>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="27"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="27"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="27"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="27"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="27"/>
+      <c r="F36" s="27"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="27"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="27"/>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="27"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="27"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="27"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D42" s="27"/>
+      <c r="F42" s="27"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="27"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D44" s="27"/>
+      <c r="F44" s="27"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D45" s="27"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D46" s="27"/>
+      <c r="F46" s="27"/>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D47" s="27"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D48" s="27"/>
+      <c r="F48" s="27"/>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="27"/>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D50" s="27"/>
+      <c r="F50" s="27"/>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D51" s="27"/>
+      <c r="F51" s="27"/>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52" s="27"/>
+      <c r="F52" s="27"/>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D53" s="27"/>
+      <c r="F53" s="27"/>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54" s="27"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D55" s="27"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D56" s="27"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D57" s="27"/>
+      <c r="F57" s="27"/>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D58" s="27"/>
+      <c r="F58" s="27"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D59" s="27"/>
+      <c r="F59" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:Q1"/>
@@ -5219,7 +7570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F016BF-D197-6240-9CE7-F95E7675D4DD}">
   <dimension ref="A1:T14"/>
   <sheetViews>
@@ -5912,7 +8263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C194B6-2AAD-FE4C-93B1-CF234D122BC3}">
   <dimension ref="A1:T14"/>
   <sheetViews>

--- a/Cables and Labels/HV_cable_map.xlsx
+++ b/Cables and Labels/HV_cable_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spaubt/Desktop/CDet/Cables and Labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4844A7FC-4A54-2B40-94BB-09CA3627FF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE18DFA-CE1D-0244-B448-8BA044DB46F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="740" windowWidth="26920" windowHeight="16680" activeTab="1" xr2:uid="{6B3C9DF8-890F-FC4D-A307-851A74B70A47}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="725">
   <si>
     <t>Legend</t>
   </si>
@@ -2203,6 +2203,18 @@
   </si>
   <si>
     <t>CDET_2L0</t>
+  </si>
+  <si>
+    <t>CDET_1L41</t>
+  </si>
+  <si>
+    <t>CDET_1R41</t>
+  </si>
+  <si>
+    <t>CDET_2L41</t>
+  </si>
+  <si>
+    <t>CDET_2R41</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2394,9 +2406,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,17 +2420,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2430,33 +2433,32 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2823,2242 +2825,2242 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="9" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="19"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="18" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="19"/>
-      <c r="S4" s="12"/>
+      <c r="S4" s="10"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="21" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="21" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="S5" s="12"/>
+      <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12">
         <v>14</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15">
+      <c r="E6" s="10"/>
+      <c r="F6" s="12">
         <v>14</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>1</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="15">
+      <c r="I6" s="10"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="12">
         <v>14</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="12">
         <v>1</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15">
+      <c r="O6" s="10"/>
+      <c r="P6" s="12">
         <v>14</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="12">
         <v>1</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="S6" s="12"/>
+      <c r="S6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12">
         <v>13</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>2</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="15">
+      <c r="I7" s="10"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="12">
         <v>13</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="12">
         <v>2</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15">
+      <c r="O7" s="10"/>
+      <c r="P7" s="12">
         <v>13</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="12">
         <v>2</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="S7" s="12"/>
+      <c r="S7" s="10"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12">
         <v>12</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>3</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15">
+      <c r="E8" s="10"/>
+      <c r="F8" s="12">
         <v>12</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>3</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="15">
+      <c r="I8" s="10"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="12">
         <v>12</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="12">
         <v>3</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15">
+      <c r="O8" s="10"/>
+      <c r="P8" s="12">
         <v>12</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="12">
         <v>3</v>
       </c>
-      <c r="R8" s="15" t="s">
+      <c r="R8" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="S8" s="12"/>
+      <c r="S8" s="10"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="12">
         <v>11</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15">
+      <c r="E9" s="10"/>
+      <c r="F9" s="12">
         <v>11</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>4</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="15">
+      <c r="I9" s="10"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="12">
         <v>11</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="12">
         <v>4</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15">
+      <c r="O9" s="10"/>
+      <c r="P9" s="12">
         <v>11</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="12">
         <v>4</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="S9" s="12"/>
+      <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="12">
         <v>10</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>5</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15">
+      <c r="E10" s="10"/>
+      <c r="F10" s="12">
         <v>10</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="15">
+      <c r="I10" s="10"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="12">
         <v>10</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="12">
         <v>5</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15">
+      <c r="O10" s="10"/>
+      <c r="P10" s="12">
         <v>10</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="12">
         <v>5</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="S10" s="12"/>
+      <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>6</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15">
+      <c r="E11" s="10"/>
+      <c r="F11" s="12">
         <v>9</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="12">
         <v>6</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="15">
+      <c r="I11" s="10"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="12">
         <v>9</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="12">
         <v>6</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15">
+      <c r="O11" s="10"/>
+      <c r="P11" s="12">
         <v>9</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="12">
         <v>6</v>
       </c>
-      <c r="R11" s="15" t="s">
+      <c r="R11" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="S11" s="12"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="12">
         <v>8</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>7</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15">
+      <c r="E12" s="10"/>
+      <c r="F12" s="12">
         <v>8</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="12">
         <v>7</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="15">
+      <c r="I12" s="10"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="12">
         <v>8</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="12">
         <v>7</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15">
+      <c r="O12" s="10"/>
+      <c r="P12" s="12">
         <v>8</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="12">
         <v>7</v>
       </c>
-      <c r="R12" s="15" t="s">
+      <c r="R12" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="S12" s="12"/>
+      <c r="S12" s="10"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="12">
         <v>7</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15">
+      <c r="E13" s="10"/>
+      <c r="F13" s="12">
         <v>7</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <v>8</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="15">
+      <c r="I13" s="10"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="12">
         <v>7</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="12">
         <v>8</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15">
+      <c r="O13" s="10"/>
+      <c r="P13" s="12">
         <v>7</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="12">
         <v>8</v>
       </c>
-      <c r="R13" s="15" t="s">
+      <c r="R13" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="S13" s="12"/>
+      <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="12">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>9</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15">
+      <c r="E14" s="10"/>
+      <c r="F14" s="12">
         <v>6</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <v>9</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="15">
+      <c r="I14" s="10"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="12">
         <v>6</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="12">
         <v>9</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15">
+      <c r="O14" s="10"/>
+      <c r="P14" s="12">
         <v>6</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="12">
         <v>9</v>
       </c>
-      <c r="R14" s="15" t="s">
+      <c r="R14" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="S14" s="12"/>
+      <c r="S14" s="10"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12">
         <v>5</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>10</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15">
+      <c r="E15" s="10"/>
+      <c r="F15" s="12">
         <v>5</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="12">
         <v>10</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="15">
+      <c r="I15" s="10"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="12">
         <v>5</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="12">
         <v>10</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15">
+      <c r="O15" s="10"/>
+      <c r="P15" s="12">
         <v>5</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="12">
         <v>10</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="R15" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="S15" s="12"/>
+      <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="12">
         <v>4</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="12">
         <v>11</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15">
+      <c r="E16" s="10"/>
+      <c r="F16" s="12">
         <v>4</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="12">
         <v>11</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="15">
+      <c r="I16" s="10"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="12">
         <v>4</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="12">
         <v>11</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15">
+      <c r="O16" s="10"/>
+      <c r="P16" s="12">
         <v>4</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="12">
         <v>11</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="S16" s="12"/>
+      <c r="S16" s="10"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="12">
         <v>3</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>12</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15">
+      <c r="E17" s="10"/>
+      <c r="F17" s="12">
         <v>3</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="12">
         <v>12</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="15">
+      <c r="I17" s="10"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="12">
         <v>3</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="12">
         <v>12</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15">
+      <c r="O17" s="10"/>
+      <c r="P17" s="12">
         <v>3</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="12">
         <v>12</v>
       </c>
-      <c r="R17" s="15" t="s">
+      <c r="R17" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="S17" s="12"/>
+      <c r="S17" s="10"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="12">
         <v>2</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="12">
         <v>13</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15">
+      <c r="E18" s="10"/>
+      <c r="F18" s="12">
         <v>2</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="12">
         <v>13</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="15">
+      <c r="I18" s="10"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="12">
         <v>2</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="12">
         <v>13</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15">
+      <c r="O18" s="10"/>
+      <c r="P18" s="12">
         <v>2</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="12">
         <v>13</v>
       </c>
-      <c r="R18" s="15" t="s">
+      <c r="R18" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="S18" s="12"/>
+      <c r="S18" s="10"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="12">
         <v>1</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>14</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15">
+      <c r="E19" s="10"/>
+      <c r="F19" s="12">
         <v>1</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="12">
         <v>14</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="15">
+      <c r="I19" s="10"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="12">
         <v>1</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="12">
         <v>14</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15">
+      <c r="O19" s="10"/>
+      <c r="P19" s="12">
         <v>1</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="12">
         <v>14</v>
       </c>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="S19" s="12"/>
+      <c r="S19" s="10"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17" t="s">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="12"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="21" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="21" t="s">
+      <c r="I22" s="10"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="N22" s="13" t="s">
+      <c r="N22" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="O22" s="14"/>
-      <c r="P22" s="21" t="s">
+      <c r="O22" s="10"/>
+      <c r="P22" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="S22" s="12"/>
+      <c r="S22" s="10"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="12">
         <v>14</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>1</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15">
+      <c r="E23" s="10"/>
+      <c r="F23" s="12">
         <v>14</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="12">
         <v>1</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="15">
+      <c r="I23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="12">
         <v>14</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="12">
         <v>1</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15">
+      <c r="O23" s="10"/>
+      <c r="P23" s="12">
         <v>14</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="12">
         <v>1</v>
       </c>
-      <c r="R23" s="15" t="s">
+      <c r="R23" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="S23" s="12"/>
+      <c r="S23" s="10"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12">
         <v>13</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="12">
         <v>2</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15">
+      <c r="E24" s="10"/>
+      <c r="F24" s="12">
         <v>13</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="12">
         <v>2</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="15">
+      <c r="I24" s="10"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12">
         <v>13</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="12">
         <v>2</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15">
+      <c r="O24" s="10"/>
+      <c r="P24" s="12">
         <v>13</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="12">
         <v>2</v>
       </c>
-      <c r="R24" s="15" t="s">
+      <c r="R24" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="S24" s="12"/>
+      <c r="S24" s="10"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="12">
         <v>12</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>3</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15">
+      <c r="E25" s="10"/>
+      <c r="F25" s="12">
         <v>12</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="12">
         <v>3</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="15">
+      <c r="I25" s="10"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="12">
         <v>12</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="12">
         <v>3</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15">
+      <c r="O25" s="10"/>
+      <c r="P25" s="12">
         <v>12</v>
       </c>
-      <c r="Q25" s="15">
+      <c r="Q25" s="12">
         <v>3</v>
       </c>
-      <c r="R25" s="15" t="s">
+      <c r="R25" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="S25" s="12"/>
+      <c r="S25" s="10"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="12">
         <v>11</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="12">
         <v>4</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15">
+      <c r="E26" s="10"/>
+      <c r="F26" s="12">
         <v>11</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="12">
         <v>4</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="15">
+      <c r="I26" s="10"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="12">
         <v>11</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="12">
         <v>4</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15">
+      <c r="O26" s="10"/>
+      <c r="P26" s="12">
         <v>11</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="12">
         <v>4</v>
       </c>
-      <c r="R26" s="15" t="s">
+      <c r="R26" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="S26" s="12"/>
+      <c r="S26" s="10"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="12">
         <v>10</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>5</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15">
+      <c r="E27" s="10"/>
+      <c r="F27" s="12">
         <v>10</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="12">
         <v>5</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="15">
+      <c r="I27" s="10"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="12">
         <v>10</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="12">
         <v>5</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15">
+      <c r="O27" s="10"/>
+      <c r="P27" s="12">
         <v>10</v>
       </c>
-      <c r="Q27" s="15">
+      <c r="Q27" s="12">
         <v>5</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="S27" s="12"/>
+      <c r="S27" s="10"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="12">
         <v>9</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>6</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15">
+      <c r="E28" s="10"/>
+      <c r="F28" s="12">
         <v>9</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="12">
         <v>6</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="15">
+      <c r="I28" s="10"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="12">
         <v>9</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="12">
         <v>6</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="O28" s="14"/>
-      <c r="P28" s="15">
+      <c r="O28" s="10"/>
+      <c r="P28" s="12">
         <v>9</v>
       </c>
-      <c r="Q28" s="15">
+      <c r="Q28" s="12">
         <v>6</v>
       </c>
-      <c r="R28" s="15" t="s">
+      <c r="R28" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="S28" s="12"/>
+      <c r="S28" s="10"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="12">
         <v>8</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>7</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15">
+      <c r="E29" s="10"/>
+      <c r="F29" s="12">
         <v>8</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="12">
         <v>7</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="15">
+      <c r="I29" s="10"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="12">
         <v>8</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="12">
         <v>7</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15">
+      <c r="O29" s="10"/>
+      <c r="P29" s="12">
         <v>8</v>
       </c>
-      <c r="Q29" s="15">
+      <c r="Q29" s="12">
         <v>7</v>
       </c>
-      <c r="R29" s="15" t="s">
+      <c r="R29" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="S29" s="12"/>
+      <c r="S29" s="10"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="12">
         <v>7</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>8</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15">
+      <c r="E30" s="10"/>
+      <c r="F30" s="12">
         <v>7</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="12">
         <v>8</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="15">
+      <c r="I30" s="10"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="12">
         <v>7</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="12">
         <v>8</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15">
+      <c r="O30" s="10"/>
+      <c r="P30" s="12">
         <v>7</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="12">
         <v>8</v>
       </c>
-      <c r="R30" s="15" t="s">
+      <c r="R30" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="S30" s="12"/>
+      <c r="S30" s="10"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="12">
         <v>6</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>9</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15">
+      <c r="E31" s="10"/>
+      <c r="F31" s="12">
         <v>6</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="12">
         <v>9</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="15">
+      <c r="I31" s="10"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="12">
         <v>6</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="12">
         <v>9</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="O31" s="14"/>
-      <c r="P31" s="15">
+      <c r="O31" s="10"/>
+      <c r="P31" s="12">
         <v>6</v>
       </c>
-      <c r="Q31" s="15">
+      <c r="Q31" s="12">
         <v>9</v>
       </c>
-      <c r="R31" s="15" t="s">
+      <c r="R31" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="S31" s="12"/>
+      <c r="S31" s="10"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="15">
+      <c r="A32" s="10"/>
+      <c r="B32" s="12">
         <v>5</v>
       </c>
-      <c r="C32" s="15">
+      <c r="C32" s="12">
         <v>10</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15">
+      <c r="E32" s="10"/>
+      <c r="F32" s="12">
         <v>5</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <v>10</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="15">
+      <c r="I32" s="10"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="12">
         <v>5</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="12">
         <v>10</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="15">
+      <c r="O32" s="10"/>
+      <c r="P32" s="12">
         <v>5</v>
       </c>
-      <c r="Q32" s="15">
+      <c r="Q32" s="12">
         <v>10</v>
       </c>
-      <c r="R32" s="15" t="s">
+      <c r="R32" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="S32" s="12"/>
+      <c r="S32" s="10"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="15">
+      <c r="A33" s="10"/>
+      <c r="B33" s="12">
         <v>4</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>11</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15">
+      <c r="E33" s="10"/>
+      <c r="F33" s="12">
         <v>4</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="12">
         <v>11</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="I33" s="12"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="15">
+      <c r="I33" s="10"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="12">
         <v>4</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="12">
         <v>11</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="O33" s="14"/>
-      <c r="P33" s="15">
+      <c r="O33" s="10"/>
+      <c r="P33" s="12">
         <v>4</v>
       </c>
-      <c r="Q33" s="15">
+      <c r="Q33" s="12">
         <v>11</v>
       </c>
-      <c r="R33" s="15" t="s">
+      <c r="R33" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="S33" s="12"/>
+      <c r="S33" s="10"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="15">
+      <c r="A34" s="10"/>
+      <c r="B34" s="12">
         <v>3</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>12</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15">
+      <c r="E34" s="10"/>
+      <c r="F34" s="12">
         <v>3</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="12">
         <v>12</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="15">
+      <c r="I34" s="10"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="12">
         <v>3</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="12">
         <v>12</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15">
+      <c r="O34" s="10"/>
+      <c r="P34" s="12">
         <v>3</v>
       </c>
-      <c r="Q34" s="15">
+      <c r="Q34" s="12">
         <v>12</v>
       </c>
-      <c r="R34" s="15" t="s">
+      <c r="R34" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="S34" s="12"/>
+      <c r="S34" s="10"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15">
+      <c r="A35" s="10"/>
+      <c r="B35" s="12">
         <v>2</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>13</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15">
+      <c r="E35" s="10"/>
+      <c r="F35" s="12">
         <v>2</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="12">
         <v>13</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="15">
+      <c r="I35" s="10"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="12">
         <v>2</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="12">
         <v>13</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="15">
+      <c r="O35" s="10"/>
+      <c r="P35" s="12">
         <v>2</v>
       </c>
-      <c r="Q35" s="15">
+      <c r="Q35" s="12">
         <v>13</v>
       </c>
-      <c r="R35" s="15" t="s">
+      <c r="R35" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="S35" s="12"/>
+      <c r="S35" s="10"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15">
+      <c r="A36" s="10"/>
+      <c r="B36" s="12">
         <v>1</v>
       </c>
-      <c r="C36" s="15">
+      <c r="C36" s="12">
         <v>14</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15">
+      <c r="E36" s="10"/>
+      <c r="F36" s="12">
         <v>1</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="12">
         <v>14</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="15">
+      <c r="I36" s="10"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="12">
         <v>1</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="12">
         <v>14</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="O36" s="14"/>
-      <c r="P36" s="15">
+      <c r="O36" s="10"/>
+      <c r="P36" s="12">
         <v>1</v>
       </c>
-      <c r="Q36" s="15">
+      <c r="Q36" s="12">
         <v>14</v>
       </c>
-      <c r="R36" s="15" t="s">
+      <c r="R36" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="S36" s="12"/>
+      <c r="S36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17" t="s">
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="12"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="21" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="21" t="s">
+      <c r="I39" s="10"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="M39" s="13" t="s">
+      <c r="M39" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="O39" s="14"/>
-      <c r="P39" s="21" t="s">
+      <c r="O39" s="10"/>
+      <c r="P39" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="Q39" s="13" t="s">
+      <c r="Q39" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="R39" s="13" t="s">
+      <c r="R39" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="S39" s="12"/>
+      <c r="S39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="15">
+      <c r="A40" s="10"/>
+      <c r="B40" s="12">
         <v>14</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="12">
         <v>1</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15">
+      <c r="E40" s="10"/>
+      <c r="F40" s="12">
         <v>14</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G40" s="12">
         <v>1</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="15">
+      <c r="I40" s="10"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="12">
         <v>14</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="12">
         <v>1</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="O40" s="14"/>
-      <c r="P40" s="15">
+      <c r="O40" s="10"/>
+      <c r="P40" s="12">
         <v>14</v>
       </c>
-      <c r="Q40" s="15">
+      <c r="Q40" s="12">
         <v>1</v>
       </c>
-      <c r="R40" s="15" t="s">
+      <c r="R40" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="S40" s="12"/>
+      <c r="S40" s="10"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="15">
+      <c r="A41" s="10"/>
+      <c r="B41" s="12">
         <v>13</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>2</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15">
+      <c r="E41" s="10"/>
+      <c r="F41" s="12">
         <v>13</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="12">
         <v>2</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="15">
+      <c r="I41" s="10"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="12">
         <v>13</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M41" s="12">
         <v>2</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15">
+      <c r="O41" s="10"/>
+      <c r="P41" s="12">
         <v>13</v>
       </c>
-      <c r="Q41" s="15">
+      <c r="Q41" s="12">
         <v>2</v>
       </c>
-      <c r="R41" s="15" t="s">
+      <c r="R41" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="S41" s="12"/>
+      <c r="S41" s="10"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="15">
+      <c r="A42" s="10"/>
+      <c r="B42" s="12">
         <v>12</v>
       </c>
-      <c r="C42" s="15">
+      <c r="C42" s="12">
         <v>3</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15">
+      <c r="E42" s="10"/>
+      <c r="F42" s="12">
         <v>12</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="12">
         <v>3</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="I42" s="12"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="15">
+      <c r="I42" s="10"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="12">
         <v>12</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="12">
         <v>3</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="O42" s="14"/>
-      <c r="P42" s="15">
+      <c r="O42" s="10"/>
+      <c r="P42" s="12">
         <v>12</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="12">
         <v>3</v>
       </c>
-      <c r="R42" s="15" t="s">
+      <c r="R42" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="S42" s="12"/>
+      <c r="S42" s="10"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="12">
         <v>11</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="12">
         <v>4</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D43" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15">
+      <c r="E43" s="10"/>
+      <c r="F43" s="12">
         <v>11</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="12">
         <v>4</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="I43" s="12"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="15">
+      <c r="I43" s="10"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="12">
         <v>11</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="12">
         <v>4</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="N43" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="O43" s="14"/>
-      <c r="P43" s="15">
+      <c r="O43" s="10"/>
+      <c r="P43" s="12">
         <v>11</v>
       </c>
-      <c r="Q43" s="15">
+      <c r="Q43" s="12">
         <v>4</v>
       </c>
-      <c r="R43" s="15" t="s">
+      <c r="R43" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="S43" s="12"/>
+      <c r="S43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="12">
         <v>10</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="12">
         <v>5</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D44" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15">
+      <c r="E44" s="10"/>
+      <c r="F44" s="12">
         <v>10</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="12">
         <v>5</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="15">
+      <c r="I44" s="10"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="12">
         <v>10</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="12">
         <v>5</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="O44" s="14"/>
-      <c r="P44" s="15">
+      <c r="O44" s="10"/>
+      <c r="P44" s="12">
         <v>10</v>
       </c>
-      <c r="Q44" s="15">
+      <c r="Q44" s="12">
         <v>5</v>
       </c>
-      <c r="R44" s="15" t="s">
+      <c r="R44" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="S44" s="12"/>
+      <c r="S44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="12">
         <v>9</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="12">
         <v>6</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D45" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15">
+      <c r="E45" s="10"/>
+      <c r="F45" s="12">
         <v>9</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="12">
         <v>6</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="H45" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="I45" s="12"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="15">
+      <c r="I45" s="10"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="12">
         <v>9</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="12">
         <v>6</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="N45" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="O45" s="14"/>
-      <c r="P45" s="15">
+      <c r="O45" s="10"/>
+      <c r="P45" s="12">
         <v>9</v>
       </c>
-      <c r="Q45" s="15">
+      <c r="Q45" s="12">
         <v>6</v>
       </c>
-      <c r="R45" s="15" t="s">
+      <c r="R45" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="S45" s="12"/>
+      <c r="S45" s="10"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="15">
+      <c r="A46" s="10"/>
+      <c r="B46" s="12">
         <v>8</v>
       </c>
-      <c r="C46" s="15">
+      <c r="C46" s="12">
         <v>7</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15">
+      <c r="E46" s="10"/>
+      <c r="F46" s="12">
         <v>8</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="12">
         <v>7</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="H46" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="15">
+      <c r="I46" s="10"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="12">
         <v>8</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="12">
         <v>7</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="N46" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="O46" s="14"/>
-      <c r="P46" s="15">
+      <c r="O46" s="10"/>
+      <c r="P46" s="12">
         <v>8</v>
       </c>
-      <c r="Q46" s="15">
+      <c r="Q46" s="12">
         <v>7</v>
       </c>
-      <c r="R46" s="15" t="s">
+      <c r="R46" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="S46" s="12"/>
+      <c r="S46" s="10"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="15">
+      <c r="A47" s="10"/>
+      <c r="B47" s="12">
         <v>7</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="12">
         <v>8</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D47" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15">
+      <c r="E47" s="10"/>
+      <c r="F47" s="12">
         <v>7</v>
       </c>
-      <c r="G47" s="15">
+      <c r="G47" s="12">
         <v>8</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H47" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="15">
+      <c r="I47" s="10"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="12">
         <v>7</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="12">
         <v>8</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="O47" s="14"/>
-      <c r="P47" s="15">
+      <c r="O47" s="10"/>
+      <c r="P47" s="12">
         <v>7</v>
       </c>
-      <c r="Q47" s="15">
+      <c r="Q47" s="12">
         <v>8</v>
       </c>
-      <c r="R47" s="15" t="s">
+      <c r="R47" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="S47" s="12"/>
+      <c r="S47" s="10"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="15">
+      <c r="A48" s="10"/>
+      <c r="B48" s="12">
         <v>6</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="12">
         <v>9</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15">
+      <c r="E48" s="10"/>
+      <c r="F48" s="12">
         <v>6</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="12">
         <v>9</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="I48" s="12"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="15">
+      <c r="I48" s="10"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="12">
         <v>6</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M48" s="12">
         <v>9</v>
       </c>
-      <c r="N48" s="15" t="s">
+      <c r="N48" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="O48" s="14"/>
-      <c r="P48" s="15">
+      <c r="O48" s="10"/>
+      <c r="P48" s="12">
         <v>6</v>
       </c>
-      <c r="Q48" s="15">
+      <c r="Q48" s="12">
         <v>9</v>
       </c>
-      <c r="R48" s="15" t="s">
+      <c r="R48" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="S48" s="12"/>
+      <c r="S48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="15">
+      <c r="A49" s="10"/>
+      <c r="B49" s="12">
         <v>5</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="12">
         <v>10</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D49" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15">
+      <c r="E49" s="10"/>
+      <c r="F49" s="12">
         <v>5</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="12">
         <v>10</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H49" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="I49" s="12"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="15">
+      <c r="I49" s="10"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="12">
         <v>5</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="12">
         <v>10</v>
       </c>
-      <c r="N49" s="15" t="s">
+      <c r="N49" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="O49" s="14"/>
-      <c r="P49" s="15">
+      <c r="O49" s="10"/>
+      <c r="P49" s="12">
         <v>5</v>
       </c>
-      <c r="Q49" s="15">
+      <c r="Q49" s="12">
         <v>10</v>
       </c>
-      <c r="R49" s="15" t="s">
+      <c r="R49" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="S49" s="12"/>
+      <c r="S49" s="10"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="12">
         <v>4</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="12">
         <v>11</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15">
+      <c r="E50" s="10"/>
+      <c r="F50" s="12">
         <v>4</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="12">
         <v>11</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="H50" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="I50" s="12"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="15">
+      <c r="I50" s="10"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="12">
         <v>4</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M50" s="12">
         <v>11</v>
       </c>
-      <c r="N50" s="15" t="s">
+      <c r="N50" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="O50" s="14"/>
-      <c r="P50" s="15">
+      <c r="O50" s="10"/>
+      <c r="P50" s="12">
         <v>4</v>
       </c>
-      <c r="Q50" s="15">
+      <c r="Q50" s="12">
         <v>11</v>
       </c>
-      <c r="R50" s="15" t="s">
+      <c r="R50" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="S50" s="12"/>
+      <c r="S50" s="10"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15">
+      <c r="A51" s="10"/>
+      <c r="B51" s="12">
         <v>3</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="12">
         <v>12</v>
       </c>
-      <c r="D51" s="15" t="s">
+      <c r="D51" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15">
+      <c r="E51" s="10"/>
+      <c r="F51" s="12">
         <v>3</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="12">
         <v>12</v>
       </c>
-      <c r="H51" s="15" t="s">
+      <c r="H51" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="I51" s="12"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="15">
+      <c r="I51" s="10"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="12">
         <v>3</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="12">
         <v>12</v>
       </c>
-      <c r="N51" s="15" t="s">
+      <c r="N51" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="O51" s="14"/>
-      <c r="P51" s="15">
+      <c r="O51" s="10"/>
+      <c r="P51" s="12">
         <v>3</v>
       </c>
-      <c r="Q51" s="15">
+      <c r="Q51" s="12">
         <v>12</v>
       </c>
-      <c r="R51" s="15" t="s">
+      <c r="R51" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="S51" s="12"/>
+      <c r="S51" s="10"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="12">
         <v>2</v>
       </c>
-      <c r="C52" s="15">
+      <c r="C52" s="12">
         <v>13</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15">
+      <c r="E52" s="10"/>
+      <c r="F52" s="12">
         <v>2</v>
       </c>
-      <c r="G52" s="15">
+      <c r="G52" s="12">
         <v>13</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="I52" s="12"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="15">
+      <c r="I52" s="10"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="12">
         <v>2</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="12">
         <v>13</v>
       </c>
-      <c r="N52" s="15" t="s">
+      <c r="N52" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="O52" s="14"/>
-      <c r="P52" s="15">
+      <c r="O52" s="10"/>
+      <c r="P52" s="12">
         <v>2</v>
       </c>
-      <c r="Q52" s="15">
+      <c r="Q52" s="12">
         <v>13</v>
       </c>
-      <c r="R52" s="15" t="s">
+      <c r="R52" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="S52" s="12"/>
+      <c r="S52" s="10"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="15">
+      <c r="A53" s="10"/>
+      <c r="B53" s="12">
         <v>1</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="12">
         <v>14</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="D53" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15">
+      <c r="E53" s="10"/>
+      <c r="F53" s="12">
         <v>1</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="12">
         <v>14</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="I53" s="12"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="15">
+      <c r="I53" s="10"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="12">
         <v>1</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M53" s="12">
         <v>14</v>
       </c>
-      <c r="N53" s="15" t="s">
+      <c r="N53" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="O53" s="14"/>
-      <c r="P53" s="15">
+      <c r="O53" s="10"/>
+      <c r="P53" s="12">
         <v>1</v>
       </c>
-      <c r="Q53" s="15">
+      <c r="Q53" s="12">
         <v>14</v>
       </c>
-      <c r="R53" s="15" t="s">
+      <c r="R53" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="S53" s="12"/>
+      <c r="S53" s="10"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="K2:N2"/>
     <mergeCell ref="P2:S2"/>
     <mergeCell ref="K3:S3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5066,10 +5068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FA9DD7-54BB-614B-9970-B8203AD4C8E7}">
-  <dimension ref="A2:P54"/>
+  <dimension ref="A2:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5092,1607 +5094,1601 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="22" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="21" t="s">
         <v>554</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="22" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="21" t="s">
         <v>555</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="22" t="s">
+      <c r="K3" s="21"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="11"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="19"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="20"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="20"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="19"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="20"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="18"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="17"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="13" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="13" t="s">
+      <c r="L5" s="13"/>
+      <c r="M5" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="O5" s="23"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="15" t="s">
+      <c r="C7" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15" t="s">
+      <c r="F7" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="15" t="s">
+      <c r="K7" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="O6" s="23"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="15" t="s">
+      <c r="N7" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="15" t="s">
+      <c r="C8" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15" t="s">
+      <c r="F8" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12" t="s">
         <v>681</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="15" t="s">
+      <c r="K8" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="O7" s="23"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="15" t="s">
+      <c r="N8" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="15" t="s">
+      <c r="C9" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="15" t="s">
+      <c r="F9" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="15" t="s">
+      <c r="K9" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="15" t="s">
+      <c r="N9" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="15" t="s">
+      <c r="C10" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="15" t="s">
+      <c r="F10" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="15" t="s">
+      <c r="K10" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="15" t="s">
+      <c r="N10" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="15" t="s">
+      <c r="C11" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15" t="s">
+      <c r="F11" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="15" t="s">
+      <c r="K11" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="15" t="s">
+      <c r="N11" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="15" t="s">
+      <c r="C12" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="15" t="s">
+      <c r="F12" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="15" t="s">
+      <c r="K12" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="N11" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="15" t="s">
+      <c r="N12" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="15" t="s">
+      <c r="C13" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="15" t="s">
+      <c r="F13" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="15" t="s">
+      <c r="K13" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="M13" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="N12" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="15" t="s">
+      <c r="N13" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="15" t="s">
+      <c r="C14" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="15" t="s">
+      <c r="F14" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="15" t="s">
+      <c r="K14" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>515</v>
-      </c>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="15" t="s">
+      <c r="N14" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="15" t="s">
+      <c r="C15" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="15" t="s">
+      <c r="F15" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="15" t="s">
+      <c r="K15" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="15" t="s">
+      <c r="N15" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="15" t="s">
+      <c r="C16" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="15" t="s">
+      <c r="F16" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="15" t="s">
+      <c r="K16" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="N15" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="23"/>
-      <c r="B16" s="15" t="s">
+      <c r="N16" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="15" t="s">
+      <c r="C17" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="15" t="s">
+      <c r="F17" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="15" t="s">
+      <c r="K17" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="N16" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="15" t="s">
+      <c r="N17" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="15" t="s">
+      <c r="C18" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="15" t="s">
+      <c r="F18" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="15" t="s">
+      <c r="K18" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="23"/>
-      <c r="B18" s="15" t="s">
+      <c r="N18" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="15" t="s">
+      <c r="C19" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="15" t="s">
+      <c r="F19" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="15" t="s">
+      <c r="K19" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="N18" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="23"/>
-      <c r="B19" s="15" t="s">
+      <c r="N19" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="15" t="s">
+      <c r="C20" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="15" t="s">
+      <c r="F20" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="15" t="s">
+      <c r="K20" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="N19" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="15" t="s">
+      <c r="N20" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="15" t="s">
+      <c r="C21" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="15" t="s">
+      <c r="F21" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="15" t="s">
+      <c r="K21" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="N20" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15" t="s">
+      <c r="N21" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="15" t="s">
+      <c r="C22" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15" t="s">
+      <c r="F22" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="15" t="s">
+      <c r="K22" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="N21" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="23"/>
-      <c r="B22" s="15" t="s">
+      <c r="N22" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="15" t="s">
+      <c r="C23" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15" t="s">
+      <c r="F23" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="15" t="s">
+      <c r="K23" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="N22" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="O22" s="23"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="23"/>
-      <c r="B23" s="15" t="s">
+      <c r="N23" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="15" t="s">
+      <c r="C24" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15" t="s">
+      <c r="F24" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="15" t="s">
+      <c r="K24" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="N23" s="15" t="s">
-        <v>525</v>
-      </c>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="B24" s="15" t="s">
+      <c r="N24" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="15" t="s">
+      <c r="C25" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="15" t="s">
+      <c r="F25" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="15" t="s">
+      <c r="K25" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="N24" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
-      <c r="B25" s="15" t="s">
+      <c r="N25" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="15" t="s">
+      <c r="C26" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="15" t="s">
+      <c r="F26" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="15" t="s">
+      <c r="K26" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="N25" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
-      <c r="B26" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="L26" s="23"/>
-      <c r="M26" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="O26" s="23"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="15" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="L27" s="23"/>
-      <c r="M27" s="15" t="s">
+      <c r="L27" s="13"/>
+      <c r="M27" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="N27" s="15" t="s">
+      <c r="N27" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="O27" s="23"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="15" t="s">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="K28" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="L28" s="23"/>
-      <c r="M28" s="15" t="s">
+      <c r="L28" s="13"/>
+      <c r="M28" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="O28" s="23"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="15" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="L29" s="23"/>
-      <c r="M29" s="15" t="s">
+      <c r="L29" s="13"/>
+      <c r="M29" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="O29" s="23"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="15" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="K30" s="15" t="s">
+      <c r="K30" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="L30" s="23"/>
-      <c r="M30" s="15" t="s">
+      <c r="L30" s="13"/>
+      <c r="M30" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="O30" s="23"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="15" t="s">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="K31" s="15" t="s">
+      <c r="K31" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="L31" s="23"/>
-      <c r="M31" s="15" t="s">
+      <c r="L31" s="13"/>
+      <c r="M31" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="O31" s="23"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="15" t="s">
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="K32" s="15" t="s">
+      <c r="K32" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="L32" s="23"/>
-      <c r="M32" s="15" t="s">
+      <c r="L32" s="13"/>
+      <c r="M32" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="O32" s="23"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="13"/>
+      <c r="E33" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="15" t="s">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="L33" s="23"/>
-      <c r="M33" s="15" t="s">
+      <c r="L33" s="13"/>
+      <c r="M33" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="O33" s="23"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="13"/>
+      <c r="E34" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="15" t="s">
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="L34" s="23"/>
-      <c r="M34" s="15" t="s">
+      <c r="L34" s="13"/>
+      <c r="M34" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="O34" s="23"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="13"/>
+      <c r="E35" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="F35" s="15" t="s">
+      <c r="F35" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="15" t="s">
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="K35" s="15" t="s">
+      <c r="K35" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="L35" s="23"/>
-      <c r="M35" s="15" t="s">
+      <c r="L35" s="13"/>
+      <c r="M35" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="O35" s="23"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="15" t="s">
+      <c r="D36" s="13"/>
+      <c r="E36" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15" t="s">
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="L36" s="23"/>
-      <c r="M36" s="15" t="s">
+      <c r="L36" s="13"/>
+      <c r="M36" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="O36" s="23"/>
+      <c r="O36" s="13"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="F37" s="15" t="s">
+      <c r="F37" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="15" t="s">
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="15" t="s">
+      <c r="L37" s="13"/>
+      <c r="M37" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="N37" s="15" t="s">
+      <c r="N37" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="O37" s="16"/>
+      <c r="O37" s="13"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="14"/>
+      <c r="B38" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="15" t="s">
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="K38" s="15" t="s">
+      <c r="K38" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="15" t="s">
+      <c r="L38" s="14"/>
+      <c r="M38" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="N38" s="15" t="s">
+      <c r="N38" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="O38" s="17"/>
+      <c r="O38" s="14"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="13"/>
+      <c r="B39" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="15" t="s">
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="K39" s="15" t="s">
+      <c r="K39" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="L39" s="23"/>
-      <c r="M39" s="15" t="s">
+      <c r="L39" s="13"/>
+      <c r="M39" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="N39" s="15" t="s">
+      <c r="N39" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="O39" s="23"/>
+      <c r="O39" s="13"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="F40" s="15" t="s">
+      <c r="F40" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="15" t="s">
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="K40" s="15" t="s">
+      <c r="K40" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="15" t="s">
+      <c r="L40" s="13"/>
+      <c r="M40" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="N40" s="15" t="s">
+      <c r="N40" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="O40" s="23"/>
+      <c r="O40" s="13"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="23"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F41" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="15" t="s">
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="K41" s="15" t="s">
+      <c r="K41" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="15" t="s">
+      <c r="L41" s="13"/>
+      <c r="M41" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="N41" s="15" t="s">
+      <c r="N41" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="O41" s="23"/>
+      <c r="O41" s="13"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="15" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F42" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="15" t="s">
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="K42" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="L42" s="23"/>
-      <c r="M42" s="15" t="s">
+      <c r="L42" s="13"/>
+      <c r="M42" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="N42" s="15" t="s">
+      <c r="N42" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="O42" s="23"/>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="15" t="s">
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="K43" s="15" t="s">
+      <c r="K43" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="L43" s="23"/>
-      <c r="M43" s="15" t="s">
+      <c r="L43" s="13"/>
+      <c r="M43" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="N43" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="O43" s="23"/>
+      <c r="O43" s="13"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="13"/>
+      <c r="B44" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="13"/>
+      <c r="E44" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F44" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="15" t="s">
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="K44" s="15" t="s">
+      <c r="K44" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="L44" s="23"/>
-      <c r="M44" s="15" t="s">
+      <c r="L44" s="13"/>
+      <c r="M44" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="N44" s="15" t="s">
+      <c r="N44" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="O44" s="23"/>
+      <c r="O44" s="13"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="13"/>
+      <c r="B45" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="15" t="s">
+      <c r="D45" s="13"/>
+      <c r="E45" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F45" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="15" t="s">
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="K45" s="15" t="s">
+      <c r="K45" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="L45" s="23"/>
-      <c r="M45" s="15" t="s">
+      <c r="L45" s="13"/>
+      <c r="M45" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="N45" s="15" t="s">
+      <c r="N45" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="O45" s="23"/>
+      <c r="O45" s="13"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="23"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="13"/>
+      <c r="B46" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="15" t="s">
+      <c r="D46" s="13"/>
+      <c r="E46" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F46" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="15" t="s">
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="K46" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="L46" s="23"/>
-      <c r="M46" s="15" t="s">
+      <c r="L46" s="13"/>
+      <c r="M46" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="N46" s="15" t="s">
+      <c r="N46" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="O46" s="23"/>
+      <c r="O46" s="13"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="13"/>
+      <c r="B47" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="13"/>
+      <c r="E47" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="15" t="s">
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="L47" s="23"/>
-      <c r="M47" s="15" t="s">
+      <c r="L47" s="13"/>
+      <c r="M47" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="O47" s="23"/>
+      <c r="O47" s="13"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="23"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="26"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="26"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="26"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="26"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="26"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="26"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6725,25 +6721,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -6795,10 +6791,10 @@
       <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6815,7 +6811,7 @@
       <c r="F3" s="1">
         <v>13</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>25</v>
       </c>
       <c r="H3" s="1">
@@ -6848,10 +6844,10 @@
       <c r="Q3" s="1">
         <v>145</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -7393,172 +7389,172 @@
       </c>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="D18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="D19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="D20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="D21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="D22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="D23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="D25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="D26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="D28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="D30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="D31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="D32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="D33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="D34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="D35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="D36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="D37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="D38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D39" s="27"/>
-      <c r="F39" s="27"/>
+      <c r="D39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="D40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="D41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="D42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="D43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="D44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="D45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="D46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="D47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="D48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="D49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="D50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="D51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D52" s="27"/>
-      <c r="F52" s="27"/>
+      <c r="D52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="D53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="D54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D55" s="27"/>
-      <c r="F55" s="27"/>
+      <c r="D55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="D56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D57" s="27"/>
-      <c r="F57" s="27"/>
+      <c r="D57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D58" s="27"/>
-      <c r="F58" s="27"/>
+      <c r="D58" s="4"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D59" s="27"/>
-      <c r="F59" s="27"/>
+      <c r="D59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7586,25 +7582,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -7656,10 +7652,10 @@
       <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7709,10 +7705,10 @@
       <c r="Q3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -7769,46 +7765,46 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7916,46 +7912,46 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8063,46 +8059,46 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -8210,46 +8206,46 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>185</v>
       </c>
     </row>
@@ -8280,25 +8276,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -8350,10 +8346,10 @@
       <c r="Q2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="4"/>
+      <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8403,10 +8399,10 @@
       <c r="Q3" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="4"/>
+      <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -8463,46 +8459,46 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="P5" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="Q5" s="7" t="s">
         <v>256</v>
       </c>
     </row>
@@ -8610,46 +8606,46 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="P8" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="7" t="s">
         <v>270</v>
       </c>
     </row>
@@ -8757,46 +8753,46 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="7" t="s">
         <v>354</v>
       </c>
     </row>
@@ -8904,46 +8900,46 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M14" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="P14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="7" t="s">
         <v>340</v>
       </c>
     </row>
